--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1866,4 +1867,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.07</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.07</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.06</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2953,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,471 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006283</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>206011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -930,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -991,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.1552</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1029,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.1552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1067,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.1552</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1095,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>206011</t>
+          <t>000179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
+          <t>广发美国房地产指数QDII-人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1175</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1133,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006283</t>
+          <t>000180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
+          <t>广发美国房地产指数QDII - 美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1175</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1171,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000179</t>
+          <t>160140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1209,32 +867,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000180</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1247,187 +905,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160140</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0438</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.58</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000182</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城四季金利债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1442,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1503,22 +1009,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2177</t>
+          <t>0.1810</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1541,22 +1047,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2177</t>
+          <t>0.1810</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1579,22 +1085,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2177</t>
+          <t>0.1810</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1617,26 +1123,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1655,26 +1161,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1683,32 +1189,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006283</t>
+          <t>160140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1721,36 +1227,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>206011</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1759,36 +1265,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160140</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1797,74 +1303,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,7 +1841,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2413,22 +1881,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1810</t>
+          <t>0.2177</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2451,22 +1919,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1810</t>
+          <t>0.2177</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2489,22 +1957,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1810</t>
+          <t>0.2177</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2527,26 +1995,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2565,26 +2033,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2593,32 +2061,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160140</t>
+          <t>006283</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>70.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2631,36 +2099,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>206011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>鹏华美国房地产 (QDII)人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>70.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2669,36 +2137,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>160140</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0577</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2707,36 +2175,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>160141</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2771,7 +2277,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2811,26 +2317,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2849,26 +2355,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2887,26 +2393,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2915,36 +2421,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000179</t>
+          <t>206011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>鹏华美国房地产 (QDII)人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.1175</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2953,36 +2459,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000180</t>
+          <t>006283</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.1175</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2991,32 +2497,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160140</t>
+          <t>000179</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>广发美国房地产指数QDII-人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3029,32 +2535,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>000180</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>广发美国房地产指数QDII - 美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3067,35 +2573,187 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>320017</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城四季金利债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3110,128 +2768,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.75</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1814,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2250,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2762,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
+++ b/数据整理/stocks/其他/DLR-数字房地产信托有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3215,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
